--- a/biology/Médecine/Kofoworola_Abeni_Pratt/Kofoworola_Abeni_Pratt.xlsx
+++ b/biology/Médecine/Kofoworola_Abeni_Pratt/Kofoworola_Abeni_Pratt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kofoworola Abeni Pratt (1915[1] - 18 juin 1992), est une infirmière d'origine nigériane, elle a été la première infirmière noire à travailler au National Health Service de Grande-Bretagne[2]. Elle est devenue par la suite vice-présidente du Conseil international des infirmières et première infirmière en chef noire du Nigeria, travaillant au ministère fédéral de la Santé[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kofoworola Abeni Pratt (1915 - 18 juin 1992), est une infirmière d'origine nigériane, elle a été la première infirmière noire à travailler au National Health Service de Grande-Bretagne. Elle est devenue par la suite vice-présidente du Conseil international des infirmières et première infirmière en chef noire du Nigeria, travaillant au ministère fédéral de la Santé,.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pratt, fille d'Augustus Alfred Scott et d'Elizabeth Omowumi (née Johnson)[5] fait ses études à l'école secondaire St John's et à la CMS Girls' Grammar School de Lagos[6] puis a étudié pour devenir enseignante au United Missionary College d'Ibadan, après que son père l'a découragée de son souhait d'être infirmière[7]. De 1936 à 1940, elle a enseigné dans une école de filles de la Church Mission Society au Nigeria. Elle a épousé un pharmacien nigérian, le Dr Olu Pratt, qui a par la suite obtenu des diplômes médicaux britanniques au St Bartholomew's Hospital de Londres[8].
-Après avoir déménagé en Angleterre en 1946[7], Pratt a étudié les soins infirmiers à l'école Nightingale (en) de l'hôpital St Thomas, à Londres[4]. Pendant son séjour à l'hôpital St Thomas, Pratt a subi une discrimination raciale, lorsqu'un patient a refusé d'être traité par une infirmière noire[9]. Pratt a passé ses examens d'État préliminaires en 1948 et ses finaux en 1949, se qualifiant d'infirmière diplômée d'État en 1950[1]. Il était inhabituel qu'une femme mariée soit autorisée à pratiquer des soins infirmiers à ce moment-là, et Pratt a également été la première infirmière noire qualifiée à travailler pour le NHS. Pendant son séjour à Londres, elle a été active au sein de l'Union des étudiants ouest-africains (en) (WASU), une association d'étudiants de divers pays ouest-africains qui étudiaient au Royaume-Uni et qui, en 1942, avaient demandé l'indépendance des Colonies ouest-africaines de la Grande-Bretagne[10].
-Pratt est revenue au Nigeria en 1954, après 4 ans de travail pour le NHS. Bien qu'elle se soit initialement vue refuser un poste de sœur de paroisse - un poste qui n'était alors ouvert qu'aux ex-ressortissants britanniques[9] - elle a été nommée directrice de l'Hôpital universitaire d'Ibadan dans les dix années suivantes. Pratt a été le premier Nigérian à occuper ce poste[7]. Elle a créé une école d'infirmières à l'Université d'Ibadan en 1965. Pratt a également été fondatrice et dirigeante de l'Association professionnelle des infirmières et infirmiers qualifiés au Nigéria et fondatrice et corédactrice de la revue Nigerian Nurse[11],[12].
-Pratt a été infirmière en chef au ministère fédéral de la Santé (en) du Nigeria, puis nommée commissaire à la santé de Lagos dans les années 1970[13],[14]. En 1971, Pratt est devenue présidente du Conseil national des sociétés féminines (en) du Nigeria[15].
-Elle est décédée le 18 juin 1992[16].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pratt, fille d'Augustus Alfred Scott et d'Elizabeth Omowumi (née Johnson) fait ses études à l'école secondaire St John's et à la CMS Girls' Grammar School de Lagos puis a étudié pour devenir enseignante au United Missionary College d'Ibadan, après que son père l'a découragée de son souhait d'être infirmière. De 1936 à 1940, elle a enseigné dans une école de filles de la Church Mission Society au Nigeria. Elle a épousé un pharmacien nigérian, le Dr Olu Pratt, qui a par la suite obtenu des diplômes médicaux britanniques au St Bartholomew's Hospital de Londres.
+Après avoir déménagé en Angleterre en 1946, Pratt a étudié les soins infirmiers à l'école Nightingale (en) de l'hôpital St Thomas, à Londres. Pendant son séjour à l'hôpital St Thomas, Pratt a subi une discrimination raciale, lorsqu'un patient a refusé d'être traité par une infirmière noire. Pratt a passé ses examens d'État préliminaires en 1948 et ses finaux en 1949, se qualifiant d'infirmière diplômée d'État en 1950. Il était inhabituel qu'une femme mariée soit autorisée à pratiquer des soins infirmiers à ce moment-là, et Pratt a également été la première infirmière noire qualifiée à travailler pour le NHS. Pendant son séjour à Londres, elle a été active au sein de l'Union des étudiants ouest-africains (en) (WASU), une association d'étudiants de divers pays ouest-africains qui étudiaient au Royaume-Uni et qui, en 1942, avaient demandé l'indépendance des Colonies ouest-africaines de la Grande-Bretagne.
+Pratt est revenue au Nigeria en 1954, après 4 ans de travail pour le NHS. Bien qu'elle se soit initialement vue refuser un poste de sœur de paroisse - un poste qui n'était alors ouvert qu'aux ex-ressortissants britanniques - elle a été nommée directrice de l'Hôpital universitaire d'Ibadan dans les dix années suivantes. Pratt a été le premier Nigérian à occuper ce poste. Elle a créé une école d'infirmières à l'Université d'Ibadan en 1965. Pratt a également été fondatrice et dirigeante de l'Association professionnelle des infirmières et infirmiers qualifiés au Nigéria et fondatrice et corédactrice de la revue Nigerian Nurse,.
+Pratt a été infirmière en chef au ministère fédéral de la Santé (en) du Nigeria, puis nommée commissaire à la santé de Lagos dans les années 1970,. En 1971, Pratt est devenue présidente du Conseil national des sociétés féminines (en) du Nigeria.
+Elle est décédée le 18 juin 1992.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1973, elle a reçu la médaille Florence Nightingale du Comité international de la Croix-Rouge. La citation la décrit ainsi[17]: « State Registered Nurse and Midwife. Certificate in Tropical Nursing. Teachers Diploma. Hospital Nursing Administration Certificate. Chief Nursing Officer, Federal Ministry of Health, Lagos ».
-Le prix lui a été remis par le président de la Croix-Rouge nigériane, Adetokunbo Ademola, le 21 décembre 1973[18]. En 1975, elle a reçu un titre de chefferie - celui de l' Iya Ile Agbo 'Isheri - pour services rendus à la nation[9],[19]. En 1979, elle a été nommée membre honoraire du Royal College of Nursing (en)[20].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1973, elle a reçu la médaille Florence Nightingale du Comité international de la Croix-Rouge. La citation la décrit ainsi: « State Registered Nurse and Midwife. Certificate in Tropical Nursing. Teachers Diploma. Hospital Nursing Administration Certificate. Chief Nursing Officer, Federal Ministry of Health, Lagos ».
+Le prix lui a été remis par le président de la Croix-Rouge nigériane, Adetokunbo Ademola, le 21 décembre 1973. En 1975, elle a reçu un titre de chefferie - celui de l' Iya Ile Agbo 'Isheri - pour services rendus à la nation,. En 1979, elle a été nommée membre honoraire du Royal College of Nursing (en).
 </t>
         </is>
       </c>
